--- a/resource/excel/buff.xlsx
+++ b/resource/excel/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27980" windowHeight="14540"/>
+    <workbookView windowWidth="28060" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
